--- a/exceluploader/discussdesk.xlsx
+++ b/exceluploader/discussdesk.xlsx
@@ -1,51 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Academic Status</t>
-  </si>
-  <si>
-    <t>Payment Mode</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>tachi</t>
+  </si>
+  <si>
+    <t>baba</t>
+  </si>
+  <si>
+    <t>yae</t>
+  </si>
+  <si>
+    <t>Grade 4</t>
   </si>
   <si>
     <t>Regular</t>
@@ -53,24 +35,12 @@
   <si>
     <t>Cash</t>
   </si>
-  <si>
-    <t>tata</t>
-  </si>
-  <si>
-    <t>weees</t>
-  </si>
-  <si>
-    <t>gaaaa</t>
-  </si>
-  <si>
-    <t>Grade 5</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,20 +69,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -191,6 +161,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,6 +196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,116 +372,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
